--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/D2CA064F-0BEF-4103-B3C2-CBF8056166A9/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/maize.methylation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/8908E0E1-3598-48B7-8B72-51FB23C900BC/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/maize.methylation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5F8B28-A0BF-5048-86B3-71D3E8F7C5D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A23E2E2-0C09-DA44-9003-0CF84C79409F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15960" yWindow="11000" windowWidth="19180" windowHeight="14920" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="15120" yWindow="6560" windowWidth="19180" windowHeight="14920" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>sid</t>
   </si>
@@ -84,13 +84,25 @@
     <t>5 genotypes</t>
   </si>
   <si>
-    <t>seedling 3rd leaf</t>
-  </si>
-  <si>
-    <t>bsmark</t>
-  </si>
-  <si>
     <t>sp014</t>
+  </si>
+  <si>
+    <t>sp028</t>
+  </si>
+  <si>
+    <t>seeding_leaf3</t>
+  </si>
+  <si>
+    <t>sp029</t>
+  </si>
+  <si>
+    <t>sp053</t>
+  </si>
+  <si>
+    <t>sp056</t>
+  </si>
+  <si>
+    <t>bismark</t>
   </si>
 </sst>
 </file>
@@ -442,11 +454,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,7 +521,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -527,13 +539,111 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
         <v>5</v>
       </c>
       <c r="M2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
